--- a/informatika/lab5/lab5.xlsx
+++ b/informatika/lab5/lab5.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R355-W-12-Stud\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eren\Desktop\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6769C3B-AEC2-48CD-A1F7-BF3999CFE257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3001EA4F-C21A-4022-A384-79B399D9E2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4E2B68F-CDD5-4E22-9C53-7F7D234B3539}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E4E2B68F-CDD5-4E22-9C53-7F7D234B3539}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -364,8 +364,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -388,9 +388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -428,7 +428,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -534,7 +534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -690,15 +690,15 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="24" width="9.140625" style="2"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="24" width="9.109375" style="2"/>
+    <col min="25" max="25" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -717,7 +717,7 @@
         <v>15116</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -973,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="12">
-        <f>-C4</f>
+        <f t="shared" ref="C10:C15" si="0">-C4</f>
         <v>-4982</v>
       </c>
       <c r="D10" s="12"/>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="12">
-        <f>-C5</f>
+        <f t="shared" si="0"/>
         <v>-15116</v>
       </c>
       <c r="D11" s="12"/>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="12">
-        <f>-C6</f>
+        <f t="shared" si="0"/>
         <v>-20098</v>
       </c>
       <c r="D12" s="12"/>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>11</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="12">
-        <f>-C7</f>
+        <f t="shared" si="0"/>
         <v>-35214</v>
       </c>
       <c r="D13" s="12"/>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="12">
-        <f>-C8</f>
+        <f t="shared" si="0"/>
         <v>-10134</v>
       </c>
       <c r="D14" s="12"/>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>13</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="23">
-        <f>-C9</f>
+        <f t="shared" si="0"/>
         <v>-30322</v>
       </c>
       <c r="D15" s="23"/>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:25" x14ac:dyDescent="0.3">
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1521,7 +1521,7 @@
       <c r="W17"/>
       <c r="X17"/>
     </row>
-    <row r="18" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:25" x14ac:dyDescent="0.3">
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1539,7 +1539,7 @@
       <c r="W18"/>
       <c r="X18"/>
     </row>
-    <row r="19" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:25" x14ac:dyDescent="0.3">
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1557,7 +1557,7 @@
       <c r="W19"/>
       <c r="X19"/>
     </row>
-    <row r="20" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="X20"/>
     </row>
-    <row r="21" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G21" s="7" t="s">
         <v>45</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="W21" s="9"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G22" s="10" t="s">
         <v>27</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="X22"/>
     </row>
-    <row r="23" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G23" s="10"/>
       <c r="H23" s="8"/>
       <c r="I23" s="12"/>
@@ -1707,7 +1707,7 @@
       <c r="W23" s="9"/>
       <c r="X23"/>
     </row>
-    <row r="24" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G24" s="10" t="s">
         <v>46</v>
       </c>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="X24"/>
     </row>
-    <row r="25" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G25" s="10"/>
       <c r="H25" s="8"/>
       <c r="I25" s="12"/>
@@ -1781,7 +1781,7 @@
       <c r="W25" s="9"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G26" s="13" t="s">
         <v>44</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:25" x14ac:dyDescent="0.3">
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -1856,7 +1856,7 @@
       <c r="W27"/>
       <c r="X27"/>
     </row>
-    <row r="28" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G28" s="4" t="s">
         <v>28</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="X28"/>
     </row>
-    <row r="29" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G29" s="10" t="s">
         <v>45</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="11"/>
     </row>
-    <row r="30" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G31" s="10"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -2003,7 +2003,7 @@
       <c r="V31" s="8"/>
       <c r="W31" s="11"/>
     </row>
-    <row r="32" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G32" s="10" t="s">
         <v>46</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G33" s="10"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -2075,7 +2075,7 @@
       <c r="V33" s="8"/>
       <c r="W33" s="11"/>
     </row>
-    <row r="34" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G34" s="21" t="s">
         <v>48</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G36" s="4" t="s">
         <v>27</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G37" s="10" t="s">
         <v>49</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="V37" s="8"/>
       <c r="W37" s="11"/>
     </row>
-    <row r="38" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G38" s="10" t="s">
         <v>26</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G39" s="10"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -2277,7 +2277,7 @@
       <c r="V39" s="8"/>
       <c r="W39" s="11"/>
     </row>
-    <row r="40" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G40" s="10" t="s">
         <v>46</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G41" s="10"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -2349,7 +2349,7 @@
       <c r="V41" s="8"/>
       <c r="W41" s="11"/>
     </row>
-    <row r="42" spans="7:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G42" s="13" t="s">
         <v>50</v>
       </c>
@@ -2446,9 +2446,9 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>4982</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>4982</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>15116</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>15116</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20098</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>20098</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>35214</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>35214</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10134</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>10134</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30322</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>30322</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-4982</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>-4982</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-15116</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>-15116</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-20098</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>-20098</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-35214</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>-35214</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-10134</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>-10134</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-30322</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>-30322</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E15" s="2">
         <f t="shared" ref="E15:U26" si="3">MOD(E1,2)</f>
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E17" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E18" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E19" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E20" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E21" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E22" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E23" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E24" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E25" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E26" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
